--- a/public/cohort/fileExcel/xlsxUIT/writer.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/writer.xlsx
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44295.592268519</v>
+        <v>44334.43400463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1969,6 +1969,26 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G7:G11">
+      <formula2>instellingen!$H$2:$G$7</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula2>instellingen!$H$2:$G$7</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula2>instellingen!$H$2:$G$7</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6">
+      <formula2>instellingen!$H$2:$G$7</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula2>instellingen!$H$2:$G$7</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/writer.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/writer.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -107,7 +107,7 @@
     <t>vak</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>IF</t>
   </si>
   <si>
     <t>cjid</t>
@@ -152,7 +152,7 @@
     <t>niveau</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -179,22 +179,25 @@
     <t>groep</t>
   </si>
   <si>
-    <t>H8 en 9 - trillingen en golven</t>
-  </si>
-  <si>
-    <t>H11 en 12 - elektrische velden en atoomfysica</t>
-  </si>
-  <si>
-    <t>modelleren</t>
-  </si>
-  <si>
-    <t>Geo- of biofysica</t>
-  </si>
-  <si>
-    <t>H13 en H14 - Straling en kernprocessen</t>
-  </si>
-  <si>
-    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
+    <t>Computational Science</t>
+  </si>
+  <si>
+    <t>A5, A6, A7, B3, R, J</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>A11, N, E, F3, F4, L4, Q3</t>
+  </si>
+  <si>
+    <t>Keuzeproject</t>
+  </si>
+  <si>
+    <t>A3, A4, A8, A9, A10</t>
+  </si>
+  <si>
+    <t>De domeinen A12 en A13 zijn niet specifiek aan een PTA-onderdeel gekoppeld maar komen gedurende het jaar aan de orde.</t>
   </si>
   <si>
     <t>Voorkomen dat oude versies geupload kunnen worden: combineren met status?</t>
@@ -1194,7 +1197,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1225,7 +1228,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>IF leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -1233,7 +1236,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>32</v>
@@ -1333,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1362,7 +1365,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.43400463</v>
+        <v>44334.590104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1466,7 +1469,7 @@
       <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1498,7 +1501,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>IF leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1543,49 +1546,63 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="27"/>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
+        <v>3</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="27">
         <v>2</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -1594,32 +1611,36 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="I20" s="27">
+        <v>3</v>
+      </c>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
         <v>5</v>
@@ -1638,12 +1659,10 @@
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>57</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
         <v>5</v>
@@ -1688,7 +1707,7 @@
       <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1699,7 +1718,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -1715,7 +1734,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>IF leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1895,7 +1914,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  IF leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -1969,24 +1988,42 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6">
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
       <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G7:G11">
-      <formula2>instellingen!$H$2:$G$7</formula2>
-    </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula2>instellingen!$H$2:$G$7</formula2>
+      <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula2>instellingen!$H$2:$G$7</formula2>
+      <formula1>instellingen!$G$2:$G$6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6">
-      <formula2>instellingen!$H$2:$G$7</formula2>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula2>instellingen!$H$2:$G$7</formula2>
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -2018,112 +2055,112 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
